--- a/src/json/template2.xlsx
+++ b/src/json/template2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJ\NODE\nest-prisma-postgres-1\src\json\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJ\NODE\nest-eav-test-2\nest-eav-test\src\json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34204ACC-089E-4B2F-B065-D84939FE30BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65337121-5CA7-4FBE-B713-2EDC6BDAF39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
   <si>
     <t>{}</t>
   </si>
@@ -90,51 +90,6 @@
     <t>#0.0.1_5</t>
   </si>
   <si>
-    <t>#0.0.1_6</t>
-  </si>
-  <si>
-    <t>#0.0.1_7</t>
-  </si>
-  <si>
-    <t>#0.0.1_8</t>
-  </si>
-  <si>
-    <t>#0.0.1_9</t>
-  </si>
-  <si>
-    <t>#0.0.1_10</t>
-  </si>
-  <si>
-    <t>#0.1.1_1</t>
-  </si>
-  <si>
-    <t>#0.1.1_2</t>
-  </si>
-  <si>
-    <t>#0.1.1_3</t>
-  </si>
-  <si>
-    <t>#0.1.1_4</t>
-  </si>
-  <si>
-    <t>#0.1.1_5</t>
-  </si>
-  <si>
-    <t>#0.1.1_6</t>
-  </si>
-  <si>
-    <t>#0.1.1_7</t>
-  </si>
-  <si>
-    <t>#0.1.1_8</t>
-  </si>
-  <si>
-    <t>#0.1.1_9</t>
-  </si>
-  <si>
-    <t>#0.1.1_10</t>
-  </si>
-  <si>
     <t>#0.2.1_1</t>
   </si>
   <si>
@@ -211,6 +166,21 @@
   </si>
   <si>
     <t>=SUM(H3:H12)</t>
+  </si>
+  <si>
+    <t>#0.1.2_1</t>
+  </si>
+  <si>
+    <t>#0.1.2_2</t>
+  </si>
+  <si>
+    <t>#0.1.2_3</t>
+  </si>
+  <si>
+    <t>#0.1.2_4</t>
+  </si>
+  <si>
+    <t>#0.1.2_5</t>
   </si>
 </sst>
 </file>
@@ -599,7 +569,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -658,7 +628,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(B3:C3)</f>
@@ -668,10 +638,10 @@
         <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="H3" s="2">
         <f>SUM(B3:G3)</f>
@@ -686,7 +656,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" ref="D4:D12" si="0">SUM(B4:C4)</f>
@@ -696,10 +666,10 @@
         <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" ref="H4:H12" si="1">SUM(B4:G4)</f>
@@ -714,7 +684,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
@@ -724,10 +694,10 @@
         <v>5</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="1"/>
@@ -742,7 +712,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
@@ -752,10 +722,10 @@
         <v>6</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" si="1"/>
@@ -770,7 +740,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
@@ -780,10 +750,10 @@
         <v>7</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="1"/>
@@ -795,10 +765,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
@@ -808,10 +778,10 @@
         <v>8</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="1"/>
@@ -823,10 +793,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
@@ -836,10 +806,10 @@
         <v>9</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="1"/>
@@ -851,10 +821,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
@@ -864,10 +834,10 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" si="1"/>
@@ -879,10 +849,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
@@ -892,10 +862,10 @@
         <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" si="1"/>
@@ -907,10 +877,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
@@ -920,10 +890,10 @@
         <v>12</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" si="1"/>
@@ -935,23 +905,23 @@
         <v>1</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/src/json/template2.xlsx
+++ b/src/json/template2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJ\NODE\nest-eav-test-2\nest-eav-test\src\json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65337121-5CA7-4FBE-B713-2EDC6BDAF39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4B5CDB-AF16-4D88-8B53-C7A5DCCDFEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="69">
   <si>
     <t>{}</t>
   </si>
@@ -75,21 +75,6 @@
     <t>Строка 10</t>
   </si>
   <si>
-    <t>#0.0.1_1</t>
-  </si>
-  <si>
-    <t>#0.0.1_2</t>
-  </si>
-  <si>
-    <t>#0.0.1_3</t>
-  </si>
-  <si>
-    <t>#0.0.1_4</t>
-  </si>
-  <si>
-    <t>#0.0.1_5</t>
-  </si>
-  <si>
     <t>#0.2.1_1</t>
   </si>
   <si>
@@ -168,19 +153,94 @@
     <t>=SUM(H3:H12)</t>
   </si>
   <si>
-    <t>#0.1.2_1</t>
-  </si>
-  <si>
-    <t>#0.1.2_2</t>
-  </si>
-  <si>
-    <t>#0.1.2_3</t>
-  </si>
-  <si>
-    <t>#0.1.2_4</t>
-  </si>
-  <si>
-    <t>#0.1.2_5</t>
+    <t>#0.0.3_1.C2.3.1</t>
+  </si>
+  <si>
+    <t>#0.0.3_2.C2.3.2</t>
+  </si>
+  <si>
+    <t>#0.0.3_3.C2.3.3</t>
+  </si>
+  <si>
+    <t>#0.0.3_4.C2.3.4</t>
+  </si>
+  <si>
+    <t>#0.0.3_5.C2.3.5</t>
+  </si>
+  <si>
+    <t>#0.0.4_1.C2.4.1</t>
+  </si>
+  <si>
+    <t>#0.0.4_2.C2.4.2</t>
+  </si>
+  <si>
+    <t>#0.0.4_3.C2.4.3</t>
+  </si>
+  <si>
+    <t>#0.0.4_4.C2.4.4</t>
+  </si>
+  <si>
+    <t>#0.0.4_5.C2.4.5</t>
+  </si>
+  <si>
+    <t>#0.0.3_1</t>
+  </si>
+  <si>
+    <t>#0.0.3_2</t>
+  </si>
+  <si>
+    <t>#0.0.3_3</t>
+  </si>
+  <si>
+    <t>#0.0.3_4</t>
+  </si>
+  <si>
+    <t>#0.0.3_5</t>
+  </si>
+  <si>
+    <t>#0.0.4_1</t>
+  </si>
+  <si>
+    <t>#0.0.4_2</t>
+  </si>
+  <si>
+    <t>#0.0.4_3</t>
+  </si>
+  <si>
+    <t>#0.0.4_4</t>
+  </si>
+  <si>
+    <t>#0.0.4_5</t>
+  </si>
+  <si>
+    <t>#0.0.1_1.C2.1.1</t>
+  </si>
+  <si>
+    <t>#0.0.1_2.C2.1.2</t>
+  </si>
+  <si>
+    <t>#0.0.1_3.C2.1.3</t>
+  </si>
+  <si>
+    <t>#0.0.1_4.C2.1.4</t>
+  </si>
+  <si>
+    <t>#0.0.1_5.C2.1.5</t>
+  </si>
+  <si>
+    <t>#0.0.2_1.C2.2.1</t>
+  </si>
+  <si>
+    <t>#0.0.2_2.C2.2.2</t>
+  </si>
+  <si>
+    <t>#0.0.2_3.C2.2.3</t>
+  </si>
+  <si>
+    <t>#0.0.2_4.C2.2.4</t>
+  </si>
+  <si>
+    <t>#0.0.2_5.C2.2.5</t>
   </si>
 </sst>
 </file>
@@ -276,13 +336,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -566,45 +638,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="6"/>
+      <c r="B1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="10"/>
       <c r="H1" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="I1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="10"/>
+      <c r="K1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="10"/>
+      <c r="N1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="10"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5" t="s">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -619,316 +728,973 @@
       <c r="H2" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="I2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="B3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="7">
         <f>SUM(B3:C3)</f>
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>28</v>
+      <c r="F3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="H3" s="2">
         <f>SUM(B3:G3)</f>
         <v>0</v>
       </c>
+      <c r="I3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2">
+        <f>SUM(E3:J3)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="2">
+        <f>SUM(H3:M3)</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>SUM(K3:P3)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="2">
+        <f>SUM(R3:S3)</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="B4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="7">
         <f t="shared" ref="D4:D12" si="0">SUM(B4:C4)</f>
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>29</v>
+      <c r="F4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" ref="H4:H12" si="1">SUM(B4:G4)</f>
         <v>0</v>
       </c>
+      <c r="I4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" ref="K4:K12" si="2">SUM(E4:J4)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="2">
+        <f t="shared" ref="N4:N12" si="3">SUM(H4:M4)</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="2">
+        <f t="shared" ref="Q4:Q12" si="4">SUM(K4:P4)</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="T4" s="2">
+        <f t="shared" ref="T4:T12" si="5">SUM(R4:S4)</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="B5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>30</v>
+      <c r="F5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="I5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="T5" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y5" s="7" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="B6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>31</v>
+      <c r="F6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="I6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="T6" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y6" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="B7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>32</v>
+      <c r="F7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="I7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="T7" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="W7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="X7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y7" s="7" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>33</v>
+      <c r="F8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="I8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="T8" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y8" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>34</v>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="I9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="T9" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="W9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="X9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y9" s="7" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>35</v>
+      <c r="F10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="I10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="T10" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="W10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="X10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y10" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>36</v>
+      <c r="F11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="I11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q11" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="T11" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="W11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="X11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y11" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>37</v>
+      <c r="F12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="I12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T12" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="W12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="X12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y12" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>43</v>
+      <c r="I13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="U13" s="4"/>
+      <c r="V13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="W13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="X13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y13" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="10">
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="O1:P1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
